--- a/frameWork/src/TestData/StramsTestData.xlsx
+++ b/frameWork/src/TestData/StramsTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>ambika@security</t>
+  </si>
+  <si>
+    <t>mookambika@security</t>
+  </si>
+  <si>
+    <t>abc@1234</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
